--- a/biology/Médecine/Yuhanna_ibn_Sarabiyun/Yuhanna_ibn_Sarabiyun.xlsx
+++ b/biology/Médecine/Yuhanna_ibn_Sarabiyun/Yuhanna_ibn_Sarabiyun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yuhanna ibn Sarabiyun ou Yahya ibn Sarafyun (en arabe « Jean fils de Sérapion »), connu en Occident sous le nom de Johannes Serapio ou Jean Sérapion, est un médecin oriental du IXe siècle, de religion chrétienne, qui écrivait en syriaque, mais dont l'œuvre a été conservée dans des traductions arabes et latines.
 Il est l'auteur d'un ouvrage en douze livres intitulé le Grand Compendium (en arabe Al-kunnāsh al-kabīr), conservé en traduction arabe dans le manuscrit d'Istanboul Ayasofya 3716, et d'un autre en sept livres appelé le Petit Compendium (en arabe Al-kunnāsh al-ṣaghir), conservé dans deux traductions latines, une de Gérard de Crémone (XIIe siècle) intitulée Practica Joannis Serapionis aliter breviarium nuncupata, et une autre d'Andrea Alpago († 1521). La version en hébreu de Moshe b. Mazliah est faite sur la traduction de Gérard de Crémone. Ce deuxième Compendium avait été traduit trois fois en arabe : au Xe siècle par deux chrétiens nestoriens, Abu Bishr Matta ibn Yunus et Hasan bar Bahlul, et au XIIIe siècle par le secrétaire Musa b. Ibrahim al-Hadithi pour le compte du médecin Ibn al-Nafis ; il ne reste de ces traductions que des fragments conservés dans le manuscrit arabe 2918 de la Bibliothèque nationale de France (la fin du l. III et le début du l. IV, sans doute dans la traduction d'Hasan bar Bahlul) et dans les mss arabes 818 et 852 de l'Escurial.
